--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5597228A-3B4C-4907-9294-4A435BB43B7E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE368D1-2C51-4F14-A405-0257999D5DE6}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1559,7 +1559,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>confirmView (session : HttpSession, model : Model, form :  SignupForm)</a:t>
+            <a:t>confirmView (session : HttpSession, model : Model)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6162,7 +6162,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="Y40" sqref="Y40"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE368D1-2C51-4F14-A405-0257999D5DE6}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD27E729-1FC9-452D-898A-FC05307CA33B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
-    <sheet name="SignupController" sheetId="3" r:id="rId2"/>
+    <sheet name="SignupViewController" sheetId="3" r:id="rId2"/>
     <sheet name="LoginController" sheetId="2" r:id="rId3"/>
     <sheet name="UserSetController" sheetId="5" r:id="rId4"/>
-    <sheet name="UserGetController" sheetId="6" r:id="rId5"/>
+    <sheet name="UserGetViewController" sheetId="6" r:id="rId5"/>
     <sheet name="UserDeleteController" sheetId="7" r:id="rId6"/>
     <sheet name="ReservationsGetController" sheetId="8" r:id="rId7"/>
     <sheet name="ReservationPastsGetController" sheetId="9" r:id="rId8"/>
@@ -953,7 +953,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>SignupController</a:t>
+            <a:t>SignupViewController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1178,186 +1178,6 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC46B5A-C3F9-46D7-88E9-A2F024547AFC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8A11EC29-E2A6-4504-972F-4D0B9BD8BFA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="3086100"/>
-          <a:ext cx="1895475" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service : SignupService </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2836,7 +2656,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>UserGetController</a:t>
+            <a:t>UserGetViewController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2864,7 +2684,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C39941-DC41-4582-8108-49C50BF1F308}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8F501F1C-ECE9-41FE-93D7-8BA9E1180D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +2836,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@GetMapping("/user/user_get")</a:t>
+            <a:t>@GetMapping("/user/user_view")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3038,7 +2858,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getUser (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+            <a:t>userView (session : HttpSession, model : Model)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3062,201 +2882,6 @@
             </a:rPr>
             <a:t>--r String</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B50503C-AC14-4990-BEB8-45A9188592F4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2000251" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : UserGetService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6161,8 +5786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6323,8 +5948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD27E729-1FC9-452D-898A-FC05307CA33B}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA23843E-6A97-4340-96FB-B50376AD5A97}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
     <sheet name="SignupViewController" sheetId="3" r:id="rId2"/>
     <sheet name="LoginController" sheetId="2" r:id="rId3"/>
-    <sheet name="UserSetController" sheetId="5" r:id="rId4"/>
+    <sheet name="UserSetViewController" sheetId="5" r:id="rId4"/>
     <sheet name="UserGetViewController" sheetId="6" r:id="rId5"/>
-    <sheet name="UserDeleteController" sheetId="7" r:id="rId6"/>
-    <sheet name="ReservationsGetController" sheetId="8" r:id="rId7"/>
-    <sheet name="ReservationPastsGetController" sheetId="9" r:id="rId8"/>
-    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId9"/>
+    <sheet name="ReservationsGetController" sheetId="8" r:id="rId6"/>
+    <sheet name="ReservationPastsGetController" sheetId="9" r:id="rId7"/>
+    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -2153,7 +2152,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>UserSetController</a:t>
+            <a:t>UserSetViewController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2181,7 +2180,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AC8714-DE7A-4123-885F-FA6842F694DF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7D354045-F384-4B16-83B4-57AAC70AF5F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2332,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@PostMapping("/user/set_form")</a:t>
+            <a:t>@GetMapping("/user/user_update_view")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2355,7 +2354,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>setUser (session : HttpSession, redirectAttributes : RedirectAttributes, form :  LoginForm)</a:t>
+            <a:t>viewSet (session : HttpSession, model : Model, form :  UserSetForm)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2379,201 +2378,6 @@
             </a:rPr>
             <a:t>--r String</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3E3E4E-C950-4DFB-88C5-B16787CF1A1D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="1914525" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : UserSetService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2891,509 +2695,6 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5F91D1-11A0-488B-9C80-5F3F575380FC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="1743075"/>
-          <a:ext cx="8343900" cy="9067800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>UserDeleteController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCF19B1-0BB1-4405-9B00-A25E12D6409A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7353300" y="4181475"/>
-          <a:ext cx="6667500" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/user_delete")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>deleteUser (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC389F85-EB49-4B55-BAD8-F777E17D175B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2343151" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : UserDeleteService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4141,7 +3442,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4910,7 +4211,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5894,8 +5195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5948,7 +5249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -5999,60 +5300,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -6106,7 +5353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B16E93-30DD-43E0-B031-324D106958E1}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -6160,7 +5407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
   <dimension ref="F20:O105"/>
   <sheetViews>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_sys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{FA649C1B-9C31-4B83-8BB2-40B1587F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA23843E-6A97-4340-96FB-B50376AD5A97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A77E97-4A6B-44C6-AEFF-ADD2B205F8FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
     <sheet name="SignupViewController" sheetId="3" r:id="rId2"/>
-    <sheet name="LoginController" sheetId="2" r:id="rId3"/>
+    <sheet name="LoginViewController" sheetId="2" r:id="rId3"/>
     <sheet name="UserSetViewController" sheetId="5" r:id="rId4"/>
     <sheet name="UserGetViewController" sheetId="6" r:id="rId5"/>
     <sheet name="ReservationsGetController" sheetId="8" r:id="rId6"/>
@@ -32,10 +32,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1484,7 +1484,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>LoginController</a:t>
+            <a:t>LoginViewController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1664,7 +1664,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@PostMapping("/user/login")</a:t>
+            <a:t>@GetMapping("/user/login")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1686,7 +1686,25 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>login (session : HttpSession, redirectAttributes : RedirectAttributes, form :  LoginForm)</a:t>
+            <a:t>loginView (session : HttpSession, model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>, form :  LoginForm)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1709,366 +1727,6 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AE578D-5041-4642-85CE-0F29D5D765A9}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334250" y="3400425"/>
-          <a:ext cx="1771650" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service : LoginService </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179FC871-69A5-4095-9DB5-03B379CDC7D0}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{75AE578D-5041-4642-85CE-0F29D5D765A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7324725" y="4010025"/>
-          <a:ext cx="2543175" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>passEncoder : PasswordEncoder </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5037,39 +4695,39 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5091,39 +4749,39 @@
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5141,43 +4799,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5195,43 +4853,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5253,39 +4911,39 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5307,39 +4965,39 @@
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5361,39 +5019,39 @@
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5415,39 +5073,39 @@
       <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_sys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A77E97-4A6B-44C6-AEFF-ADD2B205F8FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B5A77E97-4A6B-44C6-AEFF-ADD2B205F8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4ED8A1C-4590-4A67-A95D-166F3DB577B0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="LoginViewController" sheetId="2" r:id="rId3"/>
     <sheet name="UserSetViewController" sheetId="5" r:id="rId4"/>
     <sheet name="UserGetViewController" sheetId="6" r:id="rId5"/>
-    <sheet name="ReservationsGetController" sheetId="8" r:id="rId6"/>
+    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId6"/>
     <sheet name="ReservationPastsGetController" sheetId="9" r:id="rId7"/>
     <sheet name="ReservationDeleteController" sheetId="10" r:id="rId8"/>
   </sheets>
@@ -32,10 +32,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2426,7 +2426,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ReservationsGetController</a:t>
+            <a:t>ReservationsGetViewController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2454,7 +2454,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2606,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@GetMapping("/user/reservations")</a:t>
+            <a:t>@GetMapping("/user/reservations_view")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2628,7 +2628,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getReservations (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+            <a:t>reservationsView (session : HttpSession, model : Model)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2652,201 +2652,6 @@
             </a:rPr>
             <a:t>--r String</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E03044C-129F-433B-A355-AA92873D91CE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2809876" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : ReservationsGetService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4695,39 +4500,39 @@
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
+    <row r="105" spans="6:7" ht="29.1">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4749,39 +4554,39 @@
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
+    <row r="105" spans="6:7" ht="29.1">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4799,43 +4604,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+    <sheetView topLeftCell="AN7" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
+    <row r="105" spans="6:7" ht="29.1">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4857,39 +4662,39 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
+    <row r="105" spans="6:7" ht="29.1">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4911,39 +4716,39 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
+    <row r="105" spans="6:7" ht="29.1">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4961,43 +4766,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
+    <row r="105" spans="6:7" ht="29.1">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5019,39 +4824,39 @@
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
+    <row r="105" spans="6:7" ht="29.1">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -5073,39 +4878,39 @@
       <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29" x14ac:dyDescent="0.85">
+    <row r="105" spans="6:7" ht="29.1">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_sys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B5A77E97-4A6B-44C6-AEFF-ADD2B205F8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4ED8A1C-4590-4A67-A95D-166F3DB577B0}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B5A77E97-4A6B-44C6-AEFF-ADD2B205F8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75A28509-C3A4-493F-8A08-3756F2308F11}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PassSetController" sheetId="4" r:id="rId1"/>
-    <sheet name="SignupViewController" sheetId="3" r:id="rId2"/>
-    <sheet name="LoginViewController" sheetId="2" r:id="rId3"/>
-    <sheet name="UserSetViewController" sheetId="5" r:id="rId4"/>
-    <sheet name="UserGetViewController" sheetId="6" r:id="rId5"/>
-    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId6"/>
-    <sheet name="ReservationPastsGetController" sheetId="9" r:id="rId7"/>
-    <sheet name="ReservationDeleteController" sheetId="10" r:id="rId8"/>
+    <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
+    <sheet name="LoginViewController" sheetId="2" r:id="rId2"/>
+    <sheet name="UserSetViewController" sheetId="5" r:id="rId3"/>
+    <sheet name="UserGetViewController" sheetId="6" r:id="rId4"/>
+    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -171,718 +168,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FB28D2-B0E7-4F6D-B3B1-9220C2CCECF1}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="1476375"/>
-          <a:ext cx="8343900" cy="7734300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>PassSetController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5069FFDF-2BB3-4C00-A39B-9D9533B4D89B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{82EFF9A3-300E-4B96-AA5D-B19230D649C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="3086100"/>
-          <a:ext cx="1895475" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service : PassSetService</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A181F88-4E0F-4BE9-B1DD-9BE7FB12C1F2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5069FFDF-2BB3-4C00-A39B-9D9533B4D89B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6819900" y="3600450"/>
-          <a:ext cx="8039100" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@PostMapping("/user/repass_send")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>sendRepassEmail (session : HttpSession, redirectAttributes : RedirectAttributes, form :  RepassEmailForm)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979C36B4-7FF6-4ED2-AA53-0DADE8E25C84}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A181F88-4E0F-4BE9-B1DD-9BE7FB12C1F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7029450" y="4648200"/>
-          <a:ext cx="7743825" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@PostMapping("/user/set_pass")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>setNewPass (session : HttpSession, redirectAttributes : RedirectAttributes, form :  NewPassForm)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1204,7 +489,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E58CA47-D76B-4CF3-AB75-824D46D74819}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CFC46B5A-C3F9-46D7-88E9-A2F024547AFC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8A11EC29-E2A6-4504-972F-4D0B9BD8BFA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +695,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1736,7 +1021,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2044,7 +1329,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2352,7 +1637,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2659,16 +1944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2678,7 +1963,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7188C846-AB4B-4E27-9D9D-58DFD54823F6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,8 +1971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638925" y="5295900"/>
-          <a:ext cx="7810500" cy="847725"/>
+          <a:off x="2105025" y="15544800"/>
+          <a:ext cx="7810500" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2897,1278 +2182,6 @@
             </a:rPr>
             <a:t>--r String</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6B3D88-B6CC-435B-8659-6F263F0E13AA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1762125"/>
-          <a:ext cx="8343900" cy="9067800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationPastsGetController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBEEAE0-264A-4AE0-AC7E-F5D842CA51DA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7353300" y="4181475"/>
-          <a:ext cx="6667500" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/reservation_pasts")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationPasts (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322882A0-1080-46DE-99DD-646B58FD8E46}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2809876" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : ReservationsGetService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF95CC2B-5491-4FB6-8A42-939F3440A401}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6638925" y="5295900"/>
-          <a:ext cx="8153400" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>reservation_past</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservationPast (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@RequestParams </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D3914-2E82-46F2-A424-046DF4CDCA73}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515100" y="1762125"/>
-          <a:ext cx="8343900" cy="9067800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ReservationDeleteController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479D07AB-3F27-468A-B86C-36D61937013B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="4257675"/>
-          <a:ext cx="8248650" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/reservation_delete")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>deleteReservation (session : HttpSession, redirectAttributes : RedirectAttributes, params : @RequestParams)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88847879-696B-4FEF-8CA6-8C0C9DFAA7FC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334249" y="3400425"/>
-          <a:ext cx="2809876" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : ReservationDeleteService</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4493,60 +2506,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72404079-614D-4403-8C5F-DFA3E818283B}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="29.1">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4600,11 +2559,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="AN7" workbookViewId="0">
+    <sheetView topLeftCell="I8" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -4654,12 +2613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4708,12 +2667,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4762,12 +2721,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4814,112 +2773,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B16E93-30DD-43E0-B031-324D106958E1}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="29.1">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5598DC7-5299-4CA9-AE67-2768B3C483A4}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="29.1">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_sys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B5A77E97-4A6B-44C6-AEFF-ADD2B205F8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75A28509-C3A4-493F-8A08-3756F2308F11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="UserSetViewController" sheetId="5" r:id="rId3"/>
     <sheet name="UserGetViewController" sheetId="6" r:id="rId4"/>
     <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId5"/>
+    <sheet name="SearchReservationsGetViewContro" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,10 +30,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -61,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1973,6 +1974,559 @@
         <a:xfrm>
           <a:off x="2105025" y="15544800"/>
           <a:ext cx="7810500" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@RequestParams </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FB25C3-0BD6-41B7-A882-2EF922311DF0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515099" y="1762125"/>
+          <a:ext cx="15097125" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SearchReservationsGetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3475FF7F-34C4-485E-84E7-8CCC87A09E45}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="10134600" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservations_view/search")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>reservationsView (session : HttpSession, model : Model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D62FC2-30C5-469D-8E05-749E3367329B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="16192500"/>
+          <a:ext cx="7810500" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2513,39 +3067,39 @@
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29.1">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -2567,39 +3121,39 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29.1">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -2621,39 +3175,39 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29.1">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -2675,39 +3229,39 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29.1">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -2725,43 +3279,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D49A215-4DE0-4BE7-95F1-846A633B4E07}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="29.1">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6343C213-21DA-479C-99E8-0EEF152A3BA8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
     <sheet name="LoginViewController" sheetId="2" r:id="rId2"/>
     <sheet name="UserSetViewController" sheetId="5" r:id="rId3"/>
     <sheet name="UserGetViewController" sheetId="6" r:id="rId4"/>
-    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId5"/>
-    <sheet name="SearchReservationsGetViewContro" sheetId="9" r:id="rId6"/>
+    <sheet name="ReservationGetViewController" sheetId="10" r:id="rId5"/>
+    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId6"/>
+    <sheet name="SearchReservationsGetViewContro" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,10 +31,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -62,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1643,6 +1644,559 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9569F17-7C07-4EFE-BA47-5A1AC15F4BC6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="1466850"/>
+          <a:ext cx="8343900" cy="7734300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationGetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E62961B-153E-42AC-AB29-F7C8473B59E1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A9569F17-7C07-4EFE-BA47-5A1AC15F4BC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation_view")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>reservationView (session : HttpSession, model : Model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F279A246-BABF-41C6-ABC7-13FA677275AD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E62961B-153E-42AC-AB29-F7C8473B59E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="16192500"/>
+          <a:ext cx="7810500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@RequestParams </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2191,7 +2745,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3067,39 +3621,39 @@
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3121,39 +3675,39 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3175,39 +3729,39 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3229,39 +3783,39 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3276,6 +3830,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F5E25-9EB7-4201-9BCD-EBDA08EB8385}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -3283,39 +3891,39 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3329,47 +3937,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D49A215-4DE0-4BE7-95F1-846A633B4E07}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6343C213-21DA-479C-99E8-0EEF152A3BA8}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{825BC180-CB5F-4805-B8E8-71D37D2C8CDC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>viewSet (session : HttpSession, model : Model, form :  UserSetForm)</a:t>
+            <a:t>formView (session : HttpSession, model : Model, form :  UserSetForm)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3671,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3726,7 +3726,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3833,7 +3833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F5E25-9EB7-4201-9BCD-EBDA08EB8385}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{825BC180-CB5F-4805-B8E8-71D37D2C8CDC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41D3F925-2E0A-4557-838B-894B83C229F6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
@@ -780,23 +780,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 12">
+        <xdr:cNvPr id="3" name="四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA19BA3B-0DEE-4939-8624-377423571823}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
@@ -807,8 +807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="5838825"/>
-          <a:ext cx="6667500" cy="847725"/>
+          <a:off x="6829425" y="3848100"/>
+          <a:ext cx="6934200" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,25 +973,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>loginView (session : HttpSession, model</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : Model</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>, form :  LoginForm)</a:t>
+            <a:t>formView (session : HttpSession, model : Model)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3617,7 +3599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I8" workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2025\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41D3F925-2E0A-4557-838B-894B83C229F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F9C23-9DF7-4AF3-98A4-118BC0F46379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignupViewController" sheetId="3" r:id="rId1"/>
-    <sheet name="LoginViewController" sheetId="2" r:id="rId2"/>
-    <sheet name="UserSetViewController" sheetId="5" r:id="rId3"/>
-    <sheet name="UserGetViewController" sheetId="6" r:id="rId4"/>
-    <sheet name="ReservationGetViewController" sheetId="10" r:id="rId5"/>
-    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId6"/>
-    <sheet name="SearchReservationsGetViewContro" sheetId="9" r:id="rId7"/>
+    <sheet name="InterviewersGetViewController" sheetId="11" r:id="rId1"/>
+    <sheet name="SignupViewController" sheetId="3" r:id="rId2"/>
+    <sheet name="LoginViewController" sheetId="2" r:id="rId3"/>
+    <sheet name="UserSetViewController" sheetId="5" r:id="rId4"/>
+    <sheet name="UserGetViewController" sheetId="6" r:id="rId5"/>
+    <sheet name="ReservationGetViewController" sheetId="10" r:id="rId6"/>
+    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId7"/>
+    <sheet name="SearchReservationsGetViewContro" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,10 +32,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -63,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +171,559 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F9828B-45AA-41C5-8E09-287D26C15986}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>InterviewersGetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82796CC4-B813-4953-82C2-31104742C32A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/interviewers_view")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>interviewersView (session : HttpSession, model : Model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4D72B0-7B9A-4069-8067-4900AA749342}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="16192500"/>
+          <a:ext cx="7810500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@RequestParams </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -697,7 +1251,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1005,7 +1559,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1313,7 +1867,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1621,7 +2175,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2174,7 +2728,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2727,7 +3281,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3596,6 +4150,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A2218-F47E-4E92-A863-CE64F8CAA914}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -3603,39 +4211,39 @@
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3649,101 +4257,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
+    <sheetView topLeftCell="I8" workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3758,46 +4312,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3812,6 +4366,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F5E25-9EB7-4201-9BCD-EBDA08EB8385}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -3819,39 +4427,39 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" ht="18.75">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" ht="18.75">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3865,7 +4473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -3873,39 +4481,39 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -3919,7 +4527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D49A215-4DE0-4BE7-95F1-846A633B4E07}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -3927,39 +4535,39 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2025\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F9C23-9DF7-4AF3-98A4-118BC0F46379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F69F9C23-9DF7-4AF3-98A4-118BC0F46379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC9894F-E517-4BE6-A3D4-00C4D53E23DB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="InterviewersGetViewController" sheetId="11" r:id="rId1"/>
-    <sheet name="SignupViewController" sheetId="3" r:id="rId2"/>
-    <sheet name="LoginViewController" sheetId="2" r:id="rId3"/>
-    <sheet name="UserSetViewController" sheetId="5" r:id="rId4"/>
-    <sheet name="UserGetViewController" sheetId="6" r:id="rId5"/>
-    <sheet name="ReservationGetViewController" sheetId="10" r:id="rId6"/>
-    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId7"/>
-    <sheet name="SearchReservationsGetViewContro" sheetId="9" r:id="rId8"/>
+    <sheet name="ReservationAblesGetViewControll" sheetId="12" r:id="rId1"/>
+    <sheet name="InterviewersGetViewController" sheetId="11" r:id="rId2"/>
+    <sheet name="SignupViewController" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginViewController" sheetId="2" r:id="rId4"/>
+    <sheet name="UserSetViewController" sheetId="5" r:id="rId5"/>
+    <sheet name="UserGetViewController" sheetId="6" r:id="rId6"/>
+    <sheet name="ReservationGetViewController" sheetId="10" r:id="rId7"/>
+    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId8"/>
+    <sheet name="SearchReservationsGetViewContro" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,10 +33,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -64,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +187,559 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C281F97B-3FE6-4ABD-A9C3-7D2C47D5AF23}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1762125"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationAblesGetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3CF4BB-9A14-4432-8F5C-37A36A48897F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C281F97B-3FE6-4ABD-A9C3-7D2C47D5AF23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation_ables_view")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>reservationAblesView (session : HttpSession, model : Model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9369342B-7753-48B9-BEF1-66CE776FAD17}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5C3CF4BB-9A14-4432-8F5C-37A36A48897F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="16192500"/>
+          <a:ext cx="7810500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@RequestParams </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F9828B-45AA-41C5-8E09-287D26C15986}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
@@ -719,7 +1273,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1251,7 +1805,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1559,7 +2113,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1867,7 +2421,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2175,7 +2729,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2728,7 +3282,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3281,7 +3835,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4150,46 +4704,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A2218-F47E-4E92-A863-CE64F8CAA914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D990C51-F4E0-419A-9AE1-B52218094946}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15" ht="18.75">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15" ht="18.75">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A2218-F47E-4E92-A863-CE64F8CAA914}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4203,7 +4811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4211,39 +4819,39 @@
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4257,7 +4865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4265,93 +4873,39 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4366,46 +4920,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4420,6 +4974,60 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F5E25-9EB7-4201-9BCD-EBDA08EB8385}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4427,39 +5035,39 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4473,7 +5081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4481,39 +5089,39 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>
@@ -4527,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D49A215-4DE0-4BE7-95F1-846A633B4E07}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4535,39 +5143,39 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="G20" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="12:15">
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="12:15">
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>3</v>

--- a/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
+++ b/class_diagram/after/controller/view/user/面談予約システム_クラス図 (controller.view.user).xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java2025\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F69F9C23-9DF7-4AF3-98A4-118BC0F46379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC9894F-E517-4BE6-A3D4-00C4D53E23DB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F69F9C23-9DF7-4AF3-98A4-118BC0F46379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBCE231B-A791-4E20-8EE1-E17409EE64FF}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ReservationAblesGetViewControll" sheetId="12" r:id="rId1"/>
-    <sheet name="InterviewersGetViewController" sheetId="11" r:id="rId2"/>
-    <sheet name="SignupViewController" sheetId="3" r:id="rId3"/>
-    <sheet name="LoginViewController" sheetId="2" r:id="rId4"/>
-    <sheet name="UserSetViewController" sheetId="5" r:id="rId5"/>
-    <sheet name="UserGetViewController" sheetId="6" r:id="rId6"/>
-    <sheet name="ReservationGetViewController" sheetId="10" r:id="rId7"/>
-    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId8"/>
-    <sheet name="SearchReservationsGetViewContro" sheetId="9" r:id="rId9"/>
+    <sheet name="ReservationRegisterViewControll" sheetId="13" r:id="rId1"/>
+    <sheet name="ReservationAblesGetViewControll" sheetId="12" r:id="rId2"/>
+    <sheet name="InterviewersGetViewController" sheetId="11" r:id="rId3"/>
+    <sheet name="SignupViewController" sheetId="3" r:id="rId4"/>
+    <sheet name="LoginViewController" sheetId="2" r:id="rId5"/>
+    <sheet name="UserSetViewController" sheetId="5" r:id="rId6"/>
+    <sheet name="UserGetViewController" sheetId="6" r:id="rId7"/>
+    <sheet name="ReservationGetViewController" sheetId="10" r:id="rId8"/>
+    <sheet name="ReservationsGetViewController" sheetId="8" r:id="rId9"/>
+    <sheet name="SearchReservationsGetViewContro" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -187,6 +188,1112 @@
         <xdr:cNvPr id="2" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4374BBF3-E20C-48EB-9AB0-7F0B03CD2482}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1495425"/>
+          <a:ext cx="8343900" cy="7734300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationRegisterViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FE35CA-94E1-41A2-91ED-8DB41F663A5A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4374BBF3-E20C-48EB-9AB0-7F0B03CD2482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="3533775"/>
+          <a:ext cx="6667500" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation_confirm_view")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>confirmView (session : HttpSession, model : Model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A275A2-F57A-4662-8ABC-9457E2543D98}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F2FE35CA-94E1-41A2-91ED-8DB41F663A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="13792200"/>
+          <a:ext cx="7810500" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@RequestParams </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FB25C3-0BD6-41B7-A882-2EF922311DF0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515099" y="1762125"/>
+          <a:ext cx="15097125" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SearchReservationsGetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3475FF7F-34C4-485E-84E7-8CCC87A09E45}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="10134600" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservations_view/search")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>reservationsView (session : HttpSession, model : Model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D62FC2-30C5-469D-8E05-749E3367329B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="16192500"/>
+          <a:ext cx="7810500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/user/reservation")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@RequestParams </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C281F97B-3FE6-4ABD-A9C3-7D2C47D5AF23}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
@@ -720,7 +1827,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1273,7 +2380,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1805,7 +2912,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2113,7 +3220,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2421,7 +3528,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2729,7 +3836,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3282,7 +4389,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3618,559 +4725,6 @@
         <a:xfrm>
           <a:off x="2105025" y="15544800"/>
           <a:ext cx="7810500" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/reservation")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>getReservation (session : HttpSession, redirectAttributes : RedirectAttributes, param : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>@RequestParams </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FB25C3-0BD6-41B7-A882-2EF922311DF0}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6515099" y="1762125"/>
-          <a:ext cx="15097125" cy="9067800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>SearchReservationsGetViewController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3475FF7F-34C4-485E-84E7-8CCC87A09E45}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7BF15ECA-0F49-406F-9128-886B1B1C5906}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7353300" y="4181475"/>
-          <a:ext cx="10134600" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/user/reservations_view/search")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>reservationsView (session : HttpSession, model : Model)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D62FC2-30C5-469D-8E05-749E3367329B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8B1CCD85-2F39-4E36-9EFE-E2AC716AD79B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2105025" y="16192500"/>
-          <a:ext cx="7810500" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4704,10 +5258,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B303E86A-AECD-4599-B60B-D03DFA0031B9}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" ht="18.75">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15" ht="18.75">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D49A215-4DE0-4BE7-95F1-846A633B4E07}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D990C51-F4E0-419A-9AE1-B52218094946}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -4757,7 +5419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3A2218-F47E-4E92-A863-CE64F8CAA914}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4811,7 +5473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4865,7 +5527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E5985E-1B3E-4D50-A910-8988CED7EF85}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4919,7 +5581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -4973,7 +5635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -5027,7 +5689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6F5E25-9EB7-4201-9BCD-EBDA08EB8385}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -5081,7 +5743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96202B12-F1B4-4426-BE7A-FB2DF030DF77}">
   <dimension ref="F20:O105"/>
   <sheetViews>
@@ -5133,58 +5795,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D49A215-4DE0-4BE7-95F1-846A633B4E07}">
-  <dimension ref="F20:O105"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="20" spans="7:8">
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="4"/>
-      <c r="I34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="12:15">
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" spans="12:15">
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="105" spans="6:7" ht="30">
-      <c r="F105" s="1"/>
-      <c r="G105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>